--- a/Output/Data/List of market prices - To be cleaned.xlsx
+++ b/Output/Data/List of market prices - To be cleaned.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -44,8 +44,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -82,7 +84,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,10 +371,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -701,7 +703,7 @@
         <v>44000</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -709,7 +711,7 @@
         <v>44000</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -717,7 +719,7 @@
         <v>44001</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -725,7 +727,7 @@
         <v>44001</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -733,7 +735,7 @@
         <v>44001</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -781,12 +783,12 @@
         <v>44005</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44006</v>
+        <v>44005</v>
       </c>
       <c r="B52" t="s">
         <v>2</v>
@@ -797,12 +799,12 @@
         <v>44006</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44007</v>
+        <v>44006</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
@@ -813,7 +815,7 @@
         <v>44007</v>
       </c>
       <c r="B55" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -821,15 +823,15 @@
         <v>44007</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>44008</v>
+        <v>44007</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -837,7 +839,7 @@
         <v>44008</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -845,7 +847,7 @@
         <v>44008</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -853,7 +855,7 @@
         <v>44008</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -861,7 +863,7 @@
         <v>44008</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -869,15 +871,15 @@
         <v>44008</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>44011</v>
+        <v>44008</v>
       </c>
       <c r="B63" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
@@ -885,7 +887,7 @@
         <v>44011</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -893,20 +895,20 @@
         <v>44011</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>44013</v>
+        <v>44011</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>44013</v>
+        <v>44012</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -914,18 +916,18 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>44014</v>
+        <v>44013</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>44014</v>
+        <v>44013</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
@@ -933,20 +935,20 @@
         <v>44014</v>
       </c>
       <c r="B70" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="B72" t="s">
         <v>2</v>
@@ -957,7 +959,7 @@
         <v>44015</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74">
@@ -965,7 +967,7 @@
         <v>44015</v>
       </c>
       <c r="B74" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -973,23 +975,23 @@
         <v>44015</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>44018</v>
+        <v>44015</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>44018</v>
+        <v>44015</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
@@ -997,7 +999,7 @@
         <v>44018</v>
       </c>
       <c r="B78" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
@@ -1005,7 +1007,7 @@
         <v>44018</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
@@ -1013,31 +1015,31 @@
         <v>44018</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>44020</v>
+        <v>44018</v>
       </c>
       <c r="B81" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>44021</v>
+        <v>44018</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>44021</v>
+        <v>44020</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -1045,23 +1047,23 @@
         <v>44021</v>
       </c>
       <c r="B84" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>44022</v>
+        <v>44021</v>
       </c>
       <c r="B85" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>44022</v>
+        <v>44021</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -1069,7 +1071,7 @@
         <v>44022</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -1077,23 +1079,23 @@
         <v>44022</v>
       </c>
       <c r="B88" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>44025</v>
+        <v>44022</v>
       </c>
       <c r="B89" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>44025</v>
+        <v>44022</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
@@ -1101,7 +1103,7 @@
         <v>44025</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -1109,7 +1111,7 @@
         <v>44025</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93">
@@ -1117,47 +1119,47 @@
         <v>44025</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>44026</v>
+        <v>44025</v>
       </c>
       <c r="B94" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>44027</v>
+        <v>44025</v>
       </c>
       <c r="B95" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>44028</v>
+        <v>44027</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>44028</v>
+        <v>44027</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99">
@@ -1165,7 +1167,7 @@
         <v>44028</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
@@ -1173,23 +1175,23 @@
         <v>44028</v>
       </c>
       <c r="B100" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>44029</v>
+        <v>44028</v>
       </c>
       <c r="B101" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>44029</v>
+        <v>44028</v>
       </c>
       <c r="B102" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -1197,7 +1199,7 @@
         <v>44029</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -1205,7 +1207,7 @@
         <v>44029</v>
       </c>
       <c r="B104" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105">
@@ -1213,7 +1215,7 @@
         <v>44029</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106">
@@ -1221,23 +1223,23 @@
         <v>44029</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>44032</v>
+        <v>44029</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>44032</v>
+        <v>44029</v>
       </c>
       <c r="B108" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109">
@@ -1245,7 +1247,7 @@
         <v>44032</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110">
@@ -1253,7 +1255,7 @@
         <v>44032</v>
       </c>
       <c r="B110" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -1261,23 +1263,23 @@
         <v>44032</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>44034</v>
+        <v>44032</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>44034</v>
+        <v>44032</v>
       </c>
       <c r="B113" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114">
@@ -1285,12 +1287,12 @@
         <v>44034</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="B115" t="s">
         <v>2</v>
@@ -1298,10 +1300,10 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117">
@@ -1309,7 +1311,7 @@
         <v>44035</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -1317,23 +1319,23 @@
         <v>44035</v>
       </c>
       <c r="B118" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>44036</v>
+        <v>44035</v>
       </c>
       <c r="B119" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>44036</v>
+        <v>44035</v>
       </c>
       <c r="B120" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
@@ -1341,7 +1343,7 @@
         <v>44036</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -1349,7 +1351,7 @@
         <v>44036</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123">
@@ -1357,7 +1359,7 @@
         <v>44036</v>
       </c>
       <c r="B123" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124">
@@ -1365,23 +1367,23 @@
         <v>44036</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>44039</v>
+        <v>44036</v>
       </c>
       <c r="B125" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>44039</v>
+        <v>44036</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127">
@@ -1389,23 +1391,23 @@
         <v>44039</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>44041</v>
+        <v>44039</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>44041</v>
+        <v>44039</v>
       </c>
       <c r="B129" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130">
@@ -1413,31 +1415,31 @@
         <v>44041</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>44042</v>
+        <v>44041</v>
       </c>
       <c r="B131" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>44042</v>
+        <v>44041</v>
       </c>
       <c r="B132" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>44042</v>
+        <v>44041</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134">
@@ -1445,12 +1447,12 @@
         <v>44042</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>44043</v>
+        <v>44042</v>
       </c>
       <c r="B135" t="s">
         <v>2</v>
@@ -1458,18 +1460,18 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>44043</v>
+        <v>44042</v>
       </c>
       <c r="B136" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>44043</v>
+        <v>44042</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138">
@@ -1477,31 +1479,31 @@
         <v>44043</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>44046</v>
+        <v>44043</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>44046</v>
+        <v>44043</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>44046</v>
+        <v>44043</v>
       </c>
       <c r="B141" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142">
@@ -1509,20 +1511,20 @@
         <v>44046</v>
       </c>
       <c r="B142" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>44047</v>
+        <v>44046</v>
       </c>
       <c r="B143" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>44048</v>
+        <v>44046</v>
       </c>
       <c r="B144" t="s">
         <v>2</v>
@@ -1530,7 +1532,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>44048</v>
+        <v>44046</v>
       </c>
       <c r="B145" t="s">
         <v>3</v>
@@ -1538,15 +1540,15 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>44048</v>
+        <v>44047</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>44049</v>
+        <v>44048</v>
       </c>
       <c r="B147" t="s">
         <v>2</v>
@@ -1554,7 +1556,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>44049</v>
+        <v>44048</v>
       </c>
       <c r="B148" t="s">
         <v>3</v>
@@ -1562,34 +1564,34 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>44050</v>
+        <v>44048</v>
       </c>
       <c r="B149" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>44050</v>
+        <v>44049</v>
       </c>
       <c r="B150" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>44050</v>
+        <v>44049</v>
       </c>
       <c r="B151" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>44050</v>
+        <v>44049</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153">
@@ -1597,7 +1599,7 @@
         <v>44050</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154">
@@ -1605,268 +1607,268 @@
         <v>44050</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>44053</v>
+        <v>44050</v>
       </c>
       <c r="B155" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>44054</v>
+        <v>44050</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>44055</v>
+        <v>44050</v>
       </c>
       <c r="B157" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>44055</v>
+        <v>44050</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>44055</v>
+        <v>44053</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>44056</v>
+        <v>44053</v>
       </c>
       <c r="B160" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>44056</v>
+        <v>44054</v>
       </c>
       <c r="B161" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>44057</v>
+        <v>44055</v>
       </c>
       <c r="B163" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>44057</v>
+        <v>44055</v>
       </c>
       <c r="B164" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>44057</v>
+        <v>44056</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>44057</v>
+        <v>44056</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>44057</v>
+        <v>44056</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>44057</v>
+        <v>44056</v>
       </c>
       <c r="B168" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>44060</v>
+        <v>44057</v>
       </c>
       <c r="B169" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>44060</v>
+        <v>44057</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>44061</v>
+        <v>44057</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>44061</v>
+        <v>44057</v>
       </c>
       <c r="B172" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>44062</v>
+        <v>44057</v>
       </c>
       <c r="B173" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>44063</v>
+        <v>44057</v>
       </c>
       <c r="B174" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>44063</v>
+        <v>44060</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>44063</v>
+        <v>44060</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>44063</v>
+        <v>44060</v>
       </c>
       <c r="B177" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>44064</v>
+        <v>44061</v>
       </c>
       <c r="B178" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>44064</v>
+        <v>44061</v>
       </c>
       <c r="B179" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>44064</v>
+        <v>44062</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>44064</v>
+        <v>44063</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>44064</v>
+        <v>44063</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>44064</v>
+        <v>44063</v>
       </c>
       <c r="B183" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>44067</v>
+        <v>44063</v>
       </c>
       <c r="B184" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>44067</v>
+        <v>44064</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>44069</v>
+        <v>44064</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>44069</v>
+        <v>44064</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
@@ -1874,167 +1876,167 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>44069</v>
+        <v>44064</v>
       </c>
       <c r="B188" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>44070</v>
+        <v>44064</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>44070</v>
+        <v>44064</v>
       </c>
       <c r="B190" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>44070</v>
+        <v>44067</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>44071</v>
+        <v>44067</v>
       </c>
       <c r="B192" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>44071</v>
+        <v>44069</v>
       </c>
       <c r="B193" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>44071</v>
+        <v>44069</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>44071</v>
+        <v>44069</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>44074</v>
+        <v>44070</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>44074</v>
+        <v>44070</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>44074</v>
+        <v>44070</v>
       </c>
       <c r="B198" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>44074</v>
+        <v>44071</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>44076</v>
+        <v>44071</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>44076</v>
+        <v>44071</v>
       </c>
       <c r="B201" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>44077</v>
+        <v>44071</v>
       </c>
       <c r="B202" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>44077</v>
+        <v>44074</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>44077</v>
+        <v>44074</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>44077</v>
+        <v>44074</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>44077</v>
+        <v>44074</v>
       </c>
       <c r="B206" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>44078</v>
+        <v>44076</v>
       </c>
       <c r="B207" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>44078</v>
+        <v>44076</v>
       </c>
       <c r="B208" t="s">
         <v>2</v>
@@ -2042,23 +2044,23 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>44078</v>
+        <v>44077</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>44078</v>
+        <v>44077</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>44078</v>
+        <v>44077</v>
       </c>
       <c r="B211" t="s">
         <v>5</v>
@@ -2066,7 +2068,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>44078</v>
+        <v>44077</v>
       </c>
       <c r="B212" t="s">
         <v>3</v>
@@ -2074,79 +2076,79 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>44081</v>
+        <v>44077</v>
       </c>
       <c r="B213" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>44081</v>
+        <v>44078</v>
       </c>
       <c r="B214" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>44081</v>
+        <v>44078</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>44081</v>
+        <v>44078</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>44083</v>
+        <v>44078</v>
       </c>
       <c r="B217" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>44084</v>
+        <v>44078</v>
       </c>
       <c r="B218" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>44084</v>
+        <v>44078</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>44084</v>
+        <v>44081</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>44085</v>
+        <v>44081</v>
       </c>
       <c r="B221" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>44085</v>
+        <v>44081</v>
       </c>
       <c r="B222" t="s">
         <v>2</v>
@@ -2154,79 +2156,79 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>44085</v>
+        <v>44081</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>44085</v>
+        <v>44083</v>
       </c>
       <c r="B224" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>44088</v>
+        <v>44084</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>44088</v>
+        <v>44084</v>
       </c>
       <c r="B226" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>44088</v>
+        <v>44084</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>44090</v>
+        <v>44085</v>
       </c>
       <c r="B228" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>44090</v>
+        <v>44085</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>44090</v>
+        <v>44085</v>
       </c>
       <c r="B230" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>44091</v>
+        <v>44085</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>44091</v>
+        <v>44088</v>
       </c>
       <c r="B232" t="s">
         <v>6</v>
@@ -2234,47 +2236,47 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>44091</v>
+        <v>44088</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>44092</v>
+        <v>44088</v>
       </c>
       <c r="B234" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>44092</v>
+        <v>44090</v>
       </c>
       <c r="B235" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>44092</v>
+        <v>44090</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>44092</v>
+        <v>44090</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>44095</v>
+        <v>44090</v>
       </c>
       <c r="B238" t="s">
         <v>2</v>
@@ -2282,7 +2284,7 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>44095</v>
+        <v>44091</v>
       </c>
       <c r="B239" t="s">
         <v>6</v>
@@ -2290,55 +2292,55 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>44097</v>
+        <v>44091</v>
       </c>
       <c r="B240" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>44098</v>
+        <v>44091</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>44098</v>
+        <v>44092</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>44098</v>
+        <v>44092</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>44098</v>
+        <v>44092</v>
       </c>
       <c r="B244" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>44099</v>
+        <v>44092</v>
       </c>
       <c r="B245" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>44099</v>
+        <v>44095</v>
       </c>
       <c r="B246" t="s">
         <v>2</v>
@@ -2346,47 +2348,47 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>44099</v>
+        <v>44095</v>
       </c>
       <c r="B247" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>44099</v>
+        <v>44096</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>44099</v>
+        <v>44097</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>44102</v>
+        <v>44098</v>
       </c>
       <c r="B250" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>44104</v>
+        <v>44098</v>
       </c>
       <c r="B251" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>44105</v>
+        <v>44098</v>
       </c>
       <c r="B252" t="s">
         <v>2</v>
@@ -2394,71 +2396,71 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>44105</v>
+        <v>44098</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>44106</v>
+        <v>44099</v>
       </c>
       <c r="B254" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>44106</v>
+        <v>44099</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>44106</v>
+        <v>44099</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>44106</v>
+        <v>44099</v>
       </c>
       <c r="B257" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>44109</v>
+        <v>44099</v>
       </c>
       <c r="B258" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>44113</v>
+        <v>44102</v>
       </c>
       <c r="B259" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>44113</v>
+        <v>44104</v>
       </c>
       <c r="B260" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>44113</v>
+        <v>44105</v>
       </c>
       <c r="B261" t="s">
         <v>2</v>
@@ -2466,31 +2468,31 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>44116</v>
+        <v>44105</v>
       </c>
       <c r="B262" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>44116</v>
+        <v>44106</v>
       </c>
       <c r="B263" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>44119</v>
+        <v>44106</v>
       </c>
       <c r="B264" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>44119</v>
+        <v>44106</v>
       </c>
       <c r="B265" t="s">
         <v>2</v>
@@ -2498,63 +2500,63 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>44120</v>
+        <v>44106</v>
       </c>
       <c r="B266" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>44120</v>
+        <v>44109</v>
       </c>
       <c r="B267" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>44123</v>
+        <v>44113</v>
       </c>
       <c r="B268" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>44127</v>
+        <v>44113</v>
       </c>
       <c r="B269" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>44127</v>
+        <v>44113</v>
       </c>
       <c r="B270" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>44134</v>
+        <v>44116</v>
       </c>
       <c r="B271" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>44134</v>
+        <v>44116</v>
       </c>
       <c r="B272" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>44147</v>
+        <v>44119</v>
       </c>
       <c r="B273" t="s">
         <v>2</v>
@@ -2562,17 +2564,89 @@
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>44151</v>
+        <v>44119</v>
       </c>
       <c r="B274" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
+        <v>44120</v>
+      </c>
+      <c r="B275" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>44120</v>
+      </c>
+      <c r="B276" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>44123</v>
+      </c>
+      <c r="B277" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>44127</v>
+      </c>
+      <c r="B278" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>44127</v>
+      </c>
+      <c r="B279" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>44134</v>
+      </c>
+      <c r="B280" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>44134</v>
+      </c>
+      <c r="B281" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>44147</v>
+      </c>
+      <c r="B282" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>44151</v>
+      </c>
+      <c r="B283" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
         <v>44165</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B284" t="s">
         <v>2</v>
       </c>
     </row>
